--- a/scripts/output/201912/康力泉/康力泉整体收益估算.xlsx
+++ b/scripts/output/201912/康力泉/康力泉整体收益估算.xlsx
@@ -582,17 +582,17 @@
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6053</v>
+        <v>1.6082</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>-0.0067</v>
+        <v>-0.0048</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>-24.41</v>
+        <v>-17.79</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 14:24</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -651,17 +651,17 @@
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4226</v>
+        <v>1.4237</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>-0.0059</v>
+        <v>-0.0051</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>-21.34</v>
+        <v>-18.54</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 14:24</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -720,17 +720,17 @@
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4325</v>
+        <v>1.4291</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>-0.009299999999999999</v>
+        <v>-0.0117</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>-30.51</v>
+        <v>-38.2</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 14:25</t>
+          <t>2019-12-04 16:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -789,17 +789,17 @@
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9141</v>
+        <v>0.9153</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>-0.002</v>
+        <v>-0.0007</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>-6.1</v>
+        <v>-2.03</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 14:24</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -858,17 +858,17 @@
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.854</v>
+        <v>1.857</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>-0.0004</v>
-      </c>
-      <c r="K6" s="8" t="n">
-        <v>-0.92</v>
+        <v>0.0012</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>3.02</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 14:24</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -927,17 +927,17 @@
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.1559</v>
+        <v>2.159</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.0004</v>
+        <v>0.0018</v>
       </c>
       <c r="K7" s="9" t="n">
-        <v>0.78</v>
+        <v>3.8</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 14:24</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -996,17 +996,17 @@
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9399</v>
+        <v>0.9412</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="K8" s="9" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 14:25</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1065,17 +1065,17 @@
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9343</v>
+        <v>0.9354</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>-0.0033</v>
+        <v>-0.0022</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>-1.71</v>
+        <v>-1.1</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 14:24</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1134,17 +1134,17 @@
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7552</v>
+        <v>0.7557</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.0032</v>
+        <v>0.0038</v>
       </c>
       <c r="K10" s="9" t="n">
-        <v>1.28</v>
+        <v>1.54</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 14:25</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1203,17 +1203,17 @@
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.2913</v>
+        <v>1.2916</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>-0.0051</v>
+        <v>-0.0049</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>-1.66</v>
+        <v>-1.59</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 14:24</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1272,17 +1272,17 @@
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.4326</v>
+        <v>1.4337</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>-0.0059</v>
+        <v>-0.0051</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>-0.52</v>
+        <v>-0.45</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 14:24</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1341,17 +1341,17 @@
         </is>
       </c>
       <c r="I13" s="12" t="n">
-        <v>0.5479000000000001</v>
+        <v>0.5487</v>
       </c>
       <c r="J13" s="15" t="n">
-        <v>0.001</v>
+        <v>0.0024</v>
       </c>
       <c r="K13" s="9" t="n">
-        <v>8.369999999999999</v>
+        <v>21.75</v>
       </c>
       <c r="L13" s="14" t="inlineStr">
         <is>
-          <t>2019-12-04 14:25</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M13" s="14" t="inlineStr">
@@ -1410,17 +1410,17 @@
         </is>
       </c>
       <c r="I14" s="18" t="n">
-        <v>2.898</v>
+        <v>2.901</v>
       </c>
       <c r="J14" s="21" t="n">
-        <v>-0.0031</v>
+        <v>-0.0021</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>-24.3</v>
+        <v>-16.2</v>
       </c>
       <c r="L14" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 14:26</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M14" s="20" t="inlineStr">
@@ -1479,17 +1479,17 @@
         </is>
       </c>
       <c r="I15" s="18" t="n">
-        <v>3.905</v>
+        <v>3.913</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>-0.0015</v>
-      </c>
-      <c r="K15" s="8" t="n">
-        <v>-54.6</v>
+        <v>0.0005</v>
+      </c>
+      <c r="K15" s="9" t="n">
+        <v>18.2</v>
       </c>
       <c r="L15" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 14:26</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M15" s="20" t="inlineStr">
@@ -1548,17 +1548,17 @@
         </is>
       </c>
       <c r="I16" s="18" t="n">
-        <v>5.305</v>
+        <v>5.319</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>-0.0047</v>
+        <v>-0.0021</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>-970</v>
+        <v>-426.8</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 14:26</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M16" s="20" t="inlineStr">
@@ -1617,17 +1617,17 @@
         </is>
       </c>
       <c r="I17" s="18" t="n">
-        <v>0.727</v>
+        <v>0.73</v>
       </c>
       <c r="J17" s="21" t="n">
-        <v>-0.0027</v>
-      </c>
-      <c r="K17" s="8" t="n">
-        <v>-67.59999999999999</v>
+        <v>0.0014</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>33.8</v>
       </c>
       <c r="L17" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 14:17</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M17" s="20" t="inlineStr">
@@ -1686,17 +1686,17 @@
         </is>
       </c>
       <c r="I18" s="18" t="n">
-        <v>0.905</v>
+        <v>0.907</v>
       </c>
       <c r="J18" s="21" t="n">
-        <v>-0.0055</v>
+        <v>-0.0033</v>
       </c>
       <c r="K18" s="8" t="n">
-        <v>-163.5</v>
+        <v>-98.09999999999999</v>
       </c>
       <c r="L18" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 14:26</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M18" s="20" t="inlineStr">
@@ -1755,17 +1755,17 @@
         </is>
       </c>
       <c r="I19" s="18" t="n">
-        <v>0.753</v>
+        <v>0.756</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>-0.004</v>
-      </c>
-      <c r="K19" s="8" t="n">
-        <v>-102.3</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L19" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 14:26</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M19" s="20" t="inlineStr">
@@ -1824,17 +1824,17 @@
         </is>
       </c>
       <c r="I20" s="18" t="n">
-        <v>3.334</v>
+        <v>3.337</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>0.0174</v>
+        <v>0.0183</v>
       </c>
       <c r="K20" s="9" t="n">
-        <v>256.5</v>
+        <v>270</v>
       </c>
       <c r="L20" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 14:26</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M20" s="20" t="inlineStr">
@@ -1893,17 +1893,17 @@
         </is>
       </c>
       <c r="I21" s="18" t="n">
-        <v>1.61</v>
+        <v>1.612</v>
       </c>
       <c r="J21" s="21" t="n">
-        <v>-0.0019</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="K21" s="8" t="n">
-        <v>-27.6</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="L21" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 14:26</t>
+          <t>2019-12-04 15:04</t>
         </is>
       </c>
       <c r="M21" s="20" t="inlineStr">
@@ -1962,17 +1962,17 @@
         </is>
       </c>
       <c r="I22" s="18" t="n">
-        <v>1.322</v>
+        <v>1.323</v>
       </c>
       <c r="J22" s="21" t="n">
-        <v>0.0015</v>
+        <v>0.0023</v>
       </c>
       <c r="K22" s="9" t="n">
-        <v>28.8</v>
+        <v>43.2</v>
       </c>
       <c r="L22" s="20" t="inlineStr">
         <is>
-          <t>2019-12-04 14:26</t>
+          <t>2019-12-04 15:04</t>
         </is>
       </c>
       <c r="M22" s="20" t="inlineStr">
@@ -2031,17 +2031,17 @@
         </is>
       </c>
       <c r="I23" s="24" t="n">
-        <v>1.9408</v>
+        <v>1.9438</v>
       </c>
       <c r="J23" s="27" t="n">
-        <v>-0.0027</v>
+        <v>-0.0011</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>-21.62</v>
+        <v>-9.15</v>
       </c>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 14:25</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M23" s="26" t="inlineStr">
@@ -2100,17 +2100,17 @@
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>0.5479000000000001</v>
+        <v>0.5487</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>0.001</v>
+        <v>0.0024</v>
       </c>
       <c r="K24" s="9" t="n">
-        <v>4.86</v>
+        <v>12.64</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 14:25</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2169,17 +2169,17 @@
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.9399</v>
+        <v>0.9412</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="K25" s="9" t="n">
-        <v>0</v>
+        <v>6.43</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 14:25</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2238,17 +2238,17 @@
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.5465</v>
+        <v>0.5474</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>-0.0027</v>
+        <v>-0.0011</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>-11.07</v>
+        <v>-4.43</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 14:25</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2307,17 +2307,17 @@
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>1.0885</v>
+        <v>1.0907</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>-0.0068</v>
+        <v>-0.0048</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>-27.49</v>
+        <v>-19.42</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 14:24</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2376,17 +2376,17 @@
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>0.7557</v>
+        <v>0.7575</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>-0.0036</v>
+        <v>-0.0012</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>-12.29</v>
+        <v>-4.1</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 14:25</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2445,17 +2445,17 @@
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>1.7311</v>
+        <v>1.7336</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>-0.0024</v>
+        <v>-0.001</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>-1.64</v>
+        <v>-0.64</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 14:24</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2514,17 +2514,17 @@
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>0.9411</v>
+        <v>0.9423</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>-0.0022</v>
+        <v>-0.001</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>-1.55</v>
+        <v>-0.66</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 14:25</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2583,17 +2583,17 @@
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>0.9717</v>
+        <v>0.9746</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>-0.0058</v>
+        <v>-0.0029</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>-2.7</v>
+        <v>-1.33</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 14:24</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2652,17 +2652,17 @@
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>0.373</v>
+        <v>0.372</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>-0.0027</v>
+        <v>-0.0053</v>
       </c>
       <c r="K32" s="8" t="n">
-        <v>-5.3</v>
+        <v>-10.6</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 14:26</t>
+          <t>2019-12-04 15:04</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2790,17 +2790,17 @@
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.4637</v>
+        <v>1.4599</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>-0.009299999999999999</v>
+        <v>-0.0118</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>-6.3</v>
+        <v>-8.039999999999999</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 14:26</t>
+          <t>2019-12-04 16:00</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2928,17 +2928,17 @@
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>1.9408</v>
+        <v>1.9438</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>-0.0027</v>
+        <v>-0.0011</v>
       </c>
       <c r="K36" s="8" t="n">
-        <v>-5.44</v>
+        <v>-2.3</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 14:25</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
@@ -2997,17 +2997,17 @@
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.0885</v>
+        <v>1.0907</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>-0.0068</v>
+        <v>-0.0048</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>-13.69</v>
+        <v>-9.68</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 14:24</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3066,17 +3066,17 @@
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>0.993</v>
+        <v>0.9943</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>-0.004</v>
+        <v>-0.0028</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>-4.24</v>
+        <v>-2.86</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 14:25</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3135,17 +3135,17 @@
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>0.5465</v>
+        <v>0.5474</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>-0.0027</v>
+        <v>-0.0011</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>-2.72</v>
+        <v>-1.09</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 14:25</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3204,17 +3204,17 @@
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.7557</v>
+        <v>0.7575</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>-0.0036</v>
+        <v>-0.0012</v>
       </c>
       <c r="K40" s="8" t="n">
-        <v>-3.31</v>
+        <v>-1.1</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 14:25</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3273,17 +3273,17 @@
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>1.2357</v>
+        <v>1.2406</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>0.0146</v>
+        <v>0.0187</v>
       </c>
       <c r="K41" s="9" t="n">
-        <v>32.65</v>
+        <v>41.64</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 14:26</t>
+          <t>2019-12-04 15:30</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3411,17 +3411,17 @@
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.4637</v>
+        <v>1.4599</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>-0.009299999999999999</v>
+        <v>-0.0118</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>-9.44</v>
+        <v>-12.06</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 14:26</t>
+          <t>2019-12-04 16:00</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3480,17 +3480,17 @@
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>0.373</v>
+        <v>0.372</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>-0.0027</v>
+        <v>-0.0053</v>
       </c>
       <c r="K44" s="8" t="n">
-        <v>-4.76</v>
+        <v>-9.52</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 14:26</t>
+          <t>2019-12-04 15:04</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3618,17 +3618,17 @@
         </is>
       </c>
       <c r="I46" s="24" t="n">
-        <v>1.6829</v>
+        <v>1.6833</v>
       </c>
       <c r="J46" s="27" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="K46" s="8" t="n">
-        <v>-0.06</v>
+        <v>0.0002</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>0.18</v>
       </c>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 14:24</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M46" s="26" t="inlineStr">
@@ -3687,17 +3687,17 @@
         </is>
       </c>
       <c r="I47" s="30" t="n">
-        <v>1.0885</v>
+        <v>1.0907</v>
       </c>
       <c r="J47" s="33" t="n">
-        <v>-0.0068</v>
+        <v>-0.0048</v>
       </c>
       <c r="K47" s="8" t="n">
-        <v>-487.98</v>
+        <v>-344.84</v>
       </c>
       <c r="L47" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 14:24</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M47" s="32" t="inlineStr">
@@ -3756,17 +3756,17 @@
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>0.9399</v>
+        <v>0.9412</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="K48" s="9" t="n">
-        <v>0</v>
+        <v>82.54000000000001</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 14:25</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3825,17 +3825,17 @@
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>1.1475</v>
+        <v>1.1478</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>-0.0004</v>
       </c>
       <c r="K49" s="8" t="n">
-        <v>-22.66</v>
+        <v>-12.95</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 14:24</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3894,17 +3894,17 @@
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.6829</v>
+        <v>1.6833</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="K50" s="8" t="n">
-        <v>-2.01</v>
+        <v>0.0002</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>6.03</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 14:24</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3963,17 +3963,17 @@
         </is>
       </c>
       <c r="I51" s="30" t="n">
-        <v>0.8264</v>
+        <v>0.8267</v>
       </c>
       <c r="J51" s="33" t="n">
-        <v>0.0039</v>
+        <v>0.0043</v>
       </c>
       <c r="K51" s="9" t="n">
-        <v>131.25</v>
+        <v>143.55</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 14:25</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M51" s="32" t="inlineStr">
@@ -4101,17 +4101,17 @@
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.6033</v>
+        <v>1.6055</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>-0.0017</v>
+        <v>-0.0003</v>
       </c>
       <c r="K53" s="8" t="n">
-        <v>-39.49</v>
+        <v>-7.31</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 14:24</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4170,17 +4170,17 @@
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.0785</v>
+        <v>1.0798</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>-0.0057</v>
+        <v>-0.0046</v>
       </c>
       <c r="K54" s="8" t="n">
-        <v>-131.22</v>
+        <v>-103.7</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 14:25</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4308,17 +4308,17 @@
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>1.5964</v>
+        <v>1.5992</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>-0.0029</v>
+        <v>-0.0011</v>
       </c>
       <c r="K56" s="8" t="n">
-        <v>-43.84</v>
+        <v>-17.15</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 14:24</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4377,17 +4377,17 @@
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>0.373</v>
+        <v>0.372</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>-0.0027</v>
+        <v>-0.0053</v>
       </c>
       <c r="K57" s="8" t="n">
-        <v>-37.27</v>
+        <v>-74.53</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 14:26</t>
+          <t>2019-12-04 15:04</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4446,17 +4446,17 @@
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.4637</v>
+        <v>1.4599</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>-0.009299999999999999</v>
+        <v>-0.0118</v>
       </c>
       <c r="K58" s="8" t="n">
-        <v>-93.14</v>
+        <v>-118.97</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 14:26</t>
+          <t>2019-12-04 16:00</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4584,17 +4584,17 @@
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>0.5479000000000001</v>
+        <v>0.5487</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>0.001</v>
+        <v>0.0024</v>
       </c>
       <c r="K60" s="9" t="n">
-        <v>6.7</v>
+        <v>17.43</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 14:25</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
@@ -4653,17 +4653,17 @@
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>1.3561</v>
+        <v>1.3572</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>-0.0015</v>
+        <v>-0.0007</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>-10.66</v>
+        <v>-4.8</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 14:24</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4722,17 +4722,17 @@
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>0.8618</v>
+        <v>0.8633</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>-0.0029</v>
+        <v>-0.0011</v>
       </c>
       <c r="K62" s="8" t="n">
-        <v>-19.45</v>
+        <v>-7.78</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 14:24</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4791,17 +4791,17 @@
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>1.9408</v>
+        <v>1.9438</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>-0.0027</v>
+        <v>-0.0011</v>
       </c>
       <c r="K63" s="8" t="n">
-        <v>-17.16</v>
+        <v>-7.26</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 14:25</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4860,17 +4860,17 @@
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.7557</v>
+        <v>0.7575</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>-0.0036</v>
+        <v>-0.0012</v>
       </c>
       <c r="K64" s="8" t="n">
-        <v>-21.2</v>
+        <v>-7.07</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 14:25</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4929,17 +4929,17 @@
         </is>
       </c>
       <c r="I65" s="30" t="n">
-        <v>0.9321</v>
+        <v>0.9337</v>
       </c>
       <c r="J65" s="33" t="n">
-        <v>-0.0002</v>
-      </c>
-      <c r="K65" s="8" t="n">
-        <v>-0.72</v>
+        <v>0.0015</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>5.01</v>
       </c>
       <c r="L65" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 14:25</t>
+          <t>2019-12-04 15:00</t>
         </is>
       </c>
       <c r="M65" s="32" t="inlineStr">
